--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +709,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +744,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +779,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +814,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,26 +833,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
         <v>6500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +864,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +899,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +934,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +969,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +985,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +1016,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,17 +1031,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1051,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1070,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,16 +1081,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1101,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,17 +1116,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,25 +1136,31 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1092,26 +1171,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1206,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1241,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1276,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1311,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1346,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1381,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1416,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1451,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1486,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,16 +1501,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1382,26 +1521,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1556,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1591,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1626,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1666,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1685,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1700,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1731,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,37 +1766,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,19 +1836,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1674,20 +1871,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,48 +1906,60 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1761,8 +1976,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +2011,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2046,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +2081,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2116,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2151,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2186,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2205,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,19 +2220,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1990,19 +2251,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2019,20 +2286,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,20 +2321,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,20 +2356,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F61" s="3">
         <v>11100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,20 +2391,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2426,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2461,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2496,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2531,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F66" s="3">
         <v>12600</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2566,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2585,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2616,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,20 +2651,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F70" s="3">
         <v>30300</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2351,8 +2686,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2721,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-34200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2756,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2791,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2826,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2861,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-34200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2896,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2931,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2971,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3006,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +3025,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2644,11 +3041,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +3056,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3091,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3126,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3161,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3196,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,26 +3231,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3266,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,37 +3285,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3351,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3386,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,11 +3406,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3421,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3440,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3471,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3506,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3541,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,26 +3576,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>11400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>9400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3611,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,26 +3646,32 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3679,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,8 +716,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,8 +754,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,8 +792,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +830,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,29 +848,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="E12" s="3">
         <v>1900</v>
       </c>
       <c r="F12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -870,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,31 +922,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -940,8 +960,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -975,8 +998,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,29 +1013,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,8 +1049,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1031,20 +1061,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1087,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,8 +1105,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,19 +1115,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1107,8 +1141,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1116,20 +1153,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,28 +1179,31 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1177,29 +1217,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1255,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,8 +1293,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,29 +1331,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,29 +1369,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1407,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,8 +1559,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1501,19 +1571,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1527,29 +1597,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1635,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,29 +1673,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1632,34 +1711,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1754,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,23 +1788,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E41" s="3">
         <v>46800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,31 +1824,34 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>13400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1772,8 +1862,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1783,8 +1876,8 @@
       <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1798,8 +1891,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1807,8 +1900,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1842,22 +1938,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1877,23 +1976,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E46" s="3">
         <v>49200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,20 +2014,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2043,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1947,13 +2052,16 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1961,8 +2069,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1982,8 +2090,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,8 +2128,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,8 +2204,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2096,14 +2216,14 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2242,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,23 +2280,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E54" s="3">
         <v>49400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2318,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,22 +2352,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2257,22 +2388,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2292,23 +2426,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,23 +2464,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2502,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2371,14 +2514,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>11400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2397,8 +2540,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2406,14 +2552,14 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,8 +2578,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,23 +2692,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2730,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2666,14 +2834,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>32800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>30300</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,23 +2898,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2936,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,23 +3050,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-40900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-34200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3088,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,34 +3126,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2977,29 +3169,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3012,8 +3207,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,8 +3225,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3047,8 +3246,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3062,8 +3261,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,29 +3451,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3489,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,16 +3507,17 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3313,8 +3534,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3322,8 +3543,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,13 +3619,16 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-13700</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3412,8 +3642,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3427,8 +3657,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,8 +3675,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3477,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,29 +3825,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>45100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>9400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3617,8 +3863,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3652,29 +3901,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E102" s="3">
         <v>41000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3685,6 +3937,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,50 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
-        <v>43830</v>
-      </c>
       <c r="I7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43921</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -719,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,31 +864,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E12" s="3">
         <v>3200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1900</v>
       </c>
       <c r="F12" s="3">
         <v>1900</v>
       </c>
       <c r="G12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H12" s="3">
         <v>6500</v>
       </c>
-      <c r="H12" s="3">
-        <v>1600</v>
-      </c>
       <c r="I12" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1500</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -887,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,17 +944,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,8 +973,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -963,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,31 +1042,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
-        <v>2300</v>
-      </c>
       <c r="I17" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1052,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,22 +1093,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-2300</v>
-      </c>
       <c r="I18" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-2700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1115,22 +1151,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,19 +1195,19 @@
         <v>-4700</v>
       </c>
       <c r="F21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2300</v>
-      </c>
       <c r="I21" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-2600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,22 +1233,22 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1220,31 +1262,34 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-2300</v>
-      </c>
       <c r="I23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-2700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1258,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1296,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,31 +1385,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-2300</v>
-      </c>
       <c r="I26" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-2700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1372,31 +1426,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-4900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1410,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,22 +1643,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1600,31 +1672,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-4900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1638,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,31 +1754,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-4900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-4000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1714,36 +1795,39 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
-        <v>43830</v>
-      </c>
       <c r="I38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43921</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1757,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>29300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,17 +1916,20 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E42" s="3">
         <v>13400</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,8 +1945,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1865,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1879,8 +1974,8 @@
       <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1894,8 +1989,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1903,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,25 +2039,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1979,26 +2080,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E46" s="3">
         <v>44700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,23 +2121,26 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2153,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2055,25 +2162,28 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2093,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2219,14 +2341,14 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E54" s="3">
         <v>45100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,25 +2485,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2391,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2400,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2429,26 +2565,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,26 +2606,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2517,14 +2662,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>11400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2543,8 +2688,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2555,14 +2703,14 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2837,14 +3007,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>32800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>30300</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2863,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,26 +3074,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E76" s="3">
         <v>43000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-40900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-34200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,36 +3320,39 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
-        <v>43830</v>
-      </c>
       <c r="I80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43921</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -3172,31 +3366,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-4900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-4000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3210,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3249,8 +3450,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3264,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,31 +3670,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I89" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-2200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3492,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,19 +3730,20 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3537,8 +3760,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3546,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,17 +3851,20 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -3645,8 +3877,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,8 +4073,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3837,22 +4085,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>45100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3866,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3904,31 +4155,34 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>41000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I102" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>4700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3940,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,14 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +773,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +820,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +890,40 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="3">
         <v>3800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,23 +980,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,11 +1015,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -988,8 +1027,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1094,40 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1137,14 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1207,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,25 +1221,25 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1250,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,29 +1265,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1297,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,25 +1315,25 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1265,38 +1344,44 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1391,14 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1485,44 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1532,44 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-14500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1767,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,25 +1785,25 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,38 +1814,44 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-14500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1908,44 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-14500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +2049,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>29300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>46800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,23 +2092,29 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F42" s="3">
         <v>22200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>13400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,11 +2127,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1960,16 +2139,22 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
@@ -1977,11 +2162,11 @@
       <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1992,17 +2177,23 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,32 +2233,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,32 +2280,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F46" s="3">
         <v>41000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>44700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>49200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,28 +2327,34 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2156,40 +2365,46 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2206,8 +2421,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,32 +2562,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2656,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F54" s="3">
         <v>41600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>45100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>49400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2745,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,32 +2788,38 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,32 +2835,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,32 +2882,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2929,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2665,17 +2950,17 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>11400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>11100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2691,32 +2976,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,32 +3164,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,17 +3345,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>32800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>30300</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3418,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-58500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-53300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-48600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-40900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-34200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3606,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F76" s="3">
         <v>38400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>43000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>47300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-40900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-34200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3752,44 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-14500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3822,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,11 +3850,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +4100,44 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +4170,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3740,16 +4181,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3763,17 +4204,23 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,23 +4307,29 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-13700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3880,11 +4339,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,8 +4561,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4085,29 +4576,29 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>45100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>11400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4608,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4655,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-17400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>41000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1900</v>
       </c>
       <c r="I12" s="3">
         <v>1900</v>
       </c>
       <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
         <v>6500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,26 +1003,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1041,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,32 +1182,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,22 +1261,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,32 +1302,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4700</v>
       </c>
       <c r="H21" s="3">
         <v>-4700</v>
       </c>
       <c r="I21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,22 +1361,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-6900</v>
       </c>
       <c r="E23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-6900</v>
       </c>
       <c r="E26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-6900</v>
       </c>
       <c r="E27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,22 +1861,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-6900</v>
       </c>
       <c r="E33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-6900</v>
       </c>
       <c r="E35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>18400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,26 +2185,29 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E42" s="3">
         <v>9200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2223,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2145,19 +2235,22 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
@@ -2168,8 +2261,8 @@
       <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2183,8 +2276,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,34 +2335,37 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>700</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,32 +2435,35 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>400</v>
       </c>
       <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2476,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2380,13 +2485,16 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -2395,19 +2503,19 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
+        <v>500</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,19 +2685,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2589,14 +2709,14 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E54" s="3">
         <v>29600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,34 +2877,35 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>200</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2794,16 +2925,19 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2812,16 +2946,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2841,35 +2975,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2956,14 +3099,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>11400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,8 +3125,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2991,10 +3137,10 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -3003,14 +3149,14 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,14 +3519,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>32800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>30300</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-71700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-58500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E76" s="3">
         <v>26500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-40900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-34200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-6900</v>
       </c>
       <c r="E81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,8 +4055,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,40 +4320,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2200</v>
       </c>
       <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>-2200</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4181,19 +4402,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -4210,8 +4431,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,26 +4540,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4345,8 +4575,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4576,32 +4822,32 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>45100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1900</v>
       </c>
       <c r="J12" s="3">
         <v>1900</v>
       </c>
       <c r="K12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L12" s="3">
         <v>6500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,29 +1023,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1044,8 +1064,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,35 +1212,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,22 +1298,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,35 +1339,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-4700</v>
       </c>
       <c r="I21" s="3">
         <v>-4700</v>
       </c>
       <c r="J21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1364,22 +1404,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6900</v>
+        <v>-8600</v>
       </c>
       <c r="E23" s="3">
         <v>-6900</v>
       </c>
       <c r="F23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6900</v>
+        <v>-8600</v>
       </c>
       <c r="E26" s="3">
         <v>-6900</v>
       </c>
       <c r="F26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6900</v>
+        <v>-8600</v>
       </c>
       <c r="E27" s="3">
         <v>-6900</v>
       </c>
       <c r="F27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1864,22 +1934,22 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6900</v>
+        <v>-8600</v>
       </c>
       <c r="E33" s="3">
         <v>-6900</v>
       </c>
       <c r="F33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-6300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6900</v>
+        <v>-8600</v>
       </c>
       <c r="E35" s="3">
         <v>-6900</v>
       </c>
       <c r="F35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-6300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2224,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,29 +2275,32 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>4200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2316,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2238,8 +2328,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2247,13 +2340,13 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
@@ -2264,8 +2357,8 @@
       <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>500</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2279,8 +2372,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,37 +2434,40 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>700</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2388,38 +2487,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E46" s="3">
         <v>23000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>49200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2447,26 +2552,26 @@
         <v>400</v>
       </c>
       <c r="E47" s="3">
+        <v>400</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2584,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2488,8 +2593,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2506,19 +2614,19 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2697,13 +2817,13 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2712,14 +2832,14 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E54" s="3">
         <v>24400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,37 +3008,38 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>200</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,8 +3073,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2949,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2978,38 +3112,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3165,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3102,14 +3245,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>11400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3128,22 +3271,25 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -3152,14 +3298,14 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,14 +3690,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>32800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>30300</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-58500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E76" s="3">
         <v>20500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-40900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-34200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6900</v>
+        <v>-8600</v>
       </c>
       <c r="E81" s="3">
         <v>-6900</v>
       </c>
       <c r="F81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-6300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4058,8 +4257,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,8 +4537,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4332,34 +4549,34 @@
         <v>-6400</v>
       </c>
       <c r="E89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-2200</v>
       </c>
       <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>-2200</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,19 +4626,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4434,8 +4655,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,29 +4770,32 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4578,8 +4808,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>45100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>41000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +741,14 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +800,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +859,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +918,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,50 +945,52 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>5100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +1000,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,35 +1059,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,11 +1106,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1079,8 +1118,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1177,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1201,52 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1256,14 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,41 +1271,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1315,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1342,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1301,25 +1368,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1330,8 +1397,14 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,41 +1412,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,16 +1456,22 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1407,25 +1486,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1436,50 +1515,56 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1574,14 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1633,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1692,56 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1751,56 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-14500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1810,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1869,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1928,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1987,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +2046,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,10 +2061,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1937,25 +2076,25 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1966,50 +2105,56 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2164,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2223,56 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2282,61 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2346,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2373,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,44 +2396,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F41" s="3">
         <v>15900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>17100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>29300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>46800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,35 +2451,41 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>4200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>15900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>22200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>13400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,11 +2498,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2331,28 +2510,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
@@ -2360,11 +2545,11 @@
       <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>500</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2375,17 +2560,23 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,44 +2628,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>1300</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,44 +2687,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F46" s="3">
         <v>18100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>23000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>28200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>35100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>41000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>44700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>49200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,40 +2746,46 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>700</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>100</v>
-      </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>100</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2587,25 +2796,31 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -2617,22 +2832,22 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
+        <v>500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2649,8 +2864,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2923,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2982,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,44 +3041,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3100,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,44 +3159,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F54" s="3">
         <v>19500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>24400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>29600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>36300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>41600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>45100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>49400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3218,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3245,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,44 +3268,46 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,19 +3323,25 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3086,20 +3353,20 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,44 +3382,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,44 +3441,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3500,14 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3248,17 +3533,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>11400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>11100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3274,44 +3559,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3618,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3677,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3736,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,44 +3795,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3854,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3881,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3936,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3995,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3693,17 +4028,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>32800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>30300</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +4054,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,44 +4113,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-95100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-87200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-78600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-71700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-64800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-58500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-53300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-48600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-40900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-34200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +4172,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4231,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4290,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,44 +4349,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F76" s="3">
         <v>14700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>26500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>32700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>38400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>43000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-40900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-34200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4408,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4467,61 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4531,56 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4590,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4617,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,11 +4657,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4672,14 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4731,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4790,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4849,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4908,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4967,56 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +5026,14 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +5053,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4629,22 +5070,22 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4658,17 +5099,23 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +5167,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,35 +5226,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>800</v>
+      </c>
+      <c r="F94" s="3">
         <v>3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4811,11 +5270,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5285,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5312,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5367,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5426,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5485,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,50 +5544,56 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>45100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>11400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>7000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5603,14 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,50 +5662,56 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-12200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>41000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5719,12 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,8 +748,11 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,53 +960,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="E12" s="3">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="F12" s="3">
         <v>5100</v>
       </c>
       <c r="G12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1900</v>
       </c>
       <c r="M12" s="3">
         <v>1900</v>
       </c>
       <c r="N12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O12" s="3">
         <v>6500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,16 +1082,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1082,21 +1102,21 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,8 +1132,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E17" s="3">
         <v>7200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1289,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1271,44 +1301,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1393,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1374,22 +1408,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1403,8 +1437,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1412,44 +1449,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-4700</v>
       </c>
       <c r="L21" s="3">
         <v>-4700</v>
       </c>
       <c r="M21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,8 +1513,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1492,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-7300</v>
       </c>
       <c r="E23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-6900</v>
       </c>
       <c r="H23" s="3">
         <v>-6900</v>
       </c>
       <c r="I23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-7300</v>
       </c>
       <c r="E26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-6900</v>
       </c>
       <c r="H26" s="3">
         <v>-6900</v>
       </c>
       <c r="I26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-7300</v>
       </c>
       <c r="E27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-6900</v>
       </c>
       <c r="H27" s="3">
         <v>-6900</v>
       </c>
       <c r="I27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,7 +2137,7 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2082,22 +2152,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2111,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-7300</v>
       </c>
       <c r="E33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-6900</v>
       </c>
       <c r="H33" s="3">
         <v>-6900</v>
       </c>
       <c r="I33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-6300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-7300</v>
       </c>
       <c r="E35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-6900</v>
       </c>
       <c r="H35" s="3">
         <v>-6900</v>
       </c>
       <c r="I35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-6300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,47 +2484,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,38 +2544,41 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2504,8 +2594,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2516,8 +2606,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2525,7 +2618,7 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
@@ -2534,13 +2627,13 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
@@ -2551,8 +2644,8 @@
       <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>500</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2566,8 +2659,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,46 +2730,49 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>700</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2693,47 +2792,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E46" s="3">
         <v>15200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,32 +2869,32 @@
         <v>700</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
       </c>
       <c r="H47" s="3">
+        <v>400</v>
+      </c>
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2802,8 +2907,8 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2811,8 +2916,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,7 +2931,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -2838,19 +2946,19 @@
         <v>500</v>
       </c>
       <c r="K48" s="3">
+        <v>500</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2870,8 +2978,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,8 +3164,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3056,7 +3176,7 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
@@ -3065,13 +3185,13 @@
         <v>500</v>
       </c>
       <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3080,14 +3200,14 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,47 +3288,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E54" s="3">
         <v>16800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,46 +3400,47 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>200</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3460,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3359,16 +3493,16 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3388,47 +3522,50 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,47 +3584,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3539,14 +3682,14 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>11400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3565,31 +3708,34 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -3598,14 +3744,14 @@
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,47 +3956,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4034,14 +4202,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>32800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>30300</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,47 +4290,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-102200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-95100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-87200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-64800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-40900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,47 +4538,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E76" s="3">
         <v>11100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-40900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-34200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-7300</v>
       </c>
       <c r="E81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-6900</v>
       </c>
       <c r="H81" s="3">
         <v>-6900</v>
       </c>
       <c r="I81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-6300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4663,8 +4862,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,52 +5187,55 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-6400</v>
       </c>
       <c r="G89" s="3">
         <v>-6400</v>
       </c>
       <c r="H89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-2200</v>
       </c>
       <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>-2200</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,8 +5275,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5076,19 +5297,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -5105,8 +5326,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,8 +5459,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5241,29 +5471,29 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5276,8 +5506,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,53 +5793,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E100" s="3">
         <v>9600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>45100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,53 +5917,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>MOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,8 +752,11 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,8 +817,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,56 +974,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5100</v>
       </c>
       <c r="G12" s="3">
         <v>5100</v>
       </c>
       <c r="H12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1900</v>
       </c>
       <c r="N12" s="3">
         <v>1900</v>
       </c>
       <c r="O12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P12" s="3">
         <v>6500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,8 +1116,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1105,21 +1125,21 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1155,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>7400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1319,11 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,47 +1331,47 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1396,7 +1430,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1411,22 +1445,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1440,8 +1474,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1449,47 +1486,47 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-4700</v>
       </c>
       <c r="M21" s="3">
         <v>-4700</v>
       </c>
       <c r="N21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,8 +1556,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1535,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1564,56 +1604,59 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-6900</v>
       </c>
       <c r="I23" s="3">
         <v>-6900</v>
       </c>
       <c r="J23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,56 +1799,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-6900</v>
       </c>
       <c r="I26" s="3">
         <v>-6900</v>
       </c>
       <c r="J26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,56 +1864,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-6900</v>
       </c>
       <c r="I27" s="3">
         <v>-6900</v>
       </c>
       <c r="J27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2140,7 +2210,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2155,22 +2225,22 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2184,56 +2254,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-6900</v>
       </c>
       <c r="I33" s="3">
         <v>-6900</v>
       </c>
       <c r="J33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,56 +2384,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-6900</v>
       </c>
       <c r="I35" s="3">
         <v>-6900</v>
       </c>
       <c r="J35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,50 +2571,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2558,30 +2648,30 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,8 +2687,8 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2609,8 +2699,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2621,7 +2714,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
@@ -2630,13 +2723,13 @@
         <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
@@ -2647,8 +2740,8 @@
       <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>500</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2755,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,49 +2829,52 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>700</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2795,50 +2894,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E46" s="3">
         <v>16100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2872,32 +2977,32 @@
         <v>700</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
       </c>
       <c r="I47" s="3">
+        <v>400</v>
+      </c>
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2910,8 +3015,8 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2919,8 +3024,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2934,7 +3042,7 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -2949,19 +3057,19 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
+        <v>500</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2981,8 +3089,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,8 +3284,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,7 +3299,7 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
@@ -3188,13 +3308,13 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3203,14 +3323,14 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,50 +3414,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E54" s="3">
         <v>17600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,49 +3531,50 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>200</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3496,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>200</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3525,50 +3659,53 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,50 +3724,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3685,14 +3828,14 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>11400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3711,34 +3854,37 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -3747,14 +3893,14 @@
         <v>400</v>
       </c>
       <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,50 +4114,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4205,14 +4373,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>32800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>30300</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,50 +4464,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-102200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-95100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-87200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-64800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,50 +4724,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>12800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-40900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-34200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,56 +4924,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-6900</v>
       </c>
       <c r="I81" s="3">
         <v>-6900</v>
       </c>
       <c r="J81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4865,8 +5064,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,55 +5404,58 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-6400</v>
       </c>
       <c r="H89" s="3">
         <v>-6400</v>
       </c>
       <c r="I89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>-2200</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,8 +5496,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5300,19 +5521,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -5329,8 +5550,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,8 +5689,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5474,29 +5704,29 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5509,8 +5739,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,56 +6039,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>8100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>45100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>41000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
